--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>628714.944485274</v>
+        <v>626013.7278338175</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11740890.05715595</v>
+        <v>11740890.05715596</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>221.0427070190021</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>225.1346772411287</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>104.3766310120714</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>77.40707238531691</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>68.05955538367333</v>
       </c>
       <c r="S4" t="n">
-        <v>141.7781543223992</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -874,10 +874,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>356.3265794398865</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>121.3576420498881</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660373</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>35.31107887699298</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333231</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951742</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258714048</v>
+        <v>4.36018225871355</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>165.4946697765383</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>98.32292015504828</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643749</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>228.9176563786592</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.97209320964539</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5377921948941</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>56.60860467372773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>222.643495937416</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>307.1103529433065</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>118.0940871474017</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>202.2109830986593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>102.1557845699829</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.09841665934152</v>
+        <v>218.5846533520936</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.168699193619</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>54.32649042089461</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.36981422366812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>41.02686156550183</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.372291733706</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179326</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179706</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471652</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634791</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428156</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,10 +3560,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717412</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428314</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3794,10 +3794,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179787</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833804</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>627.2215614783078</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>573.7617370571245</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>307.3840804899464</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899464</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>275.4624604776055</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>275.4624604776055</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>126.5280508163542</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>809.694375811284</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U3" t="n">
-        <v>581.5585298480975</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="V3" t="n">
-        <v>581.5585298480975</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="W3" t="n">
-        <v>581.5585298480975</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="X3" t="n">
-        <v>373.7070296425646</v>
+        <v>483.2227592425594</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>275.4624604776055</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>986.1084943659507</v>
       </c>
       <c r="S4" t="n">
-        <v>782.8527349493953</v>
+        <v>779.3214597764621</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3836987074096</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="U4" t="n">
-        <v>291.0060421402317</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="V4" t="n">
-        <v>36.32155393434482</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="W4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>541.730948063999</v>
+        <v>410.1107921235861</v>
       </c>
       <c r="C5" t="n">
-        <v>172.7684311235873</v>
+        <v>410.1107921235861</v>
       </c>
       <c r="D5" t="n">
-        <v>172.7684311235873</v>
+        <v>410.1107921235861</v>
       </c>
       <c r="E5" t="n">
-        <v>172.7684311235873</v>
+        <v>50.18495430551889</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8229303743838</v>
+        <v>43.23945355631541</v>
       </c>
       <c r="G5" t="n">
-        <v>153.2784950433031</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275061</v>
+        <v>93.76641159275232</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245546</v>
+        <v>239.0325989245581</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825608</v>
+        <v>456.149911482566</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748823</v>
+        <v>729.4041931748905</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202375</v>
+        <v>1011.693823202386</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798407</v>
+        <v>1264.916654798421</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189403</v>
+        <v>1446.535482189419</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.750911261734</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.750911261734</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261717</v>
+        <v>1389.996673518262</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261717</v>
+        <v>1389.996673518262</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398235</v>
+        <v>1136.34520565478</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.099443398235</v>
+        <v>1136.34520565478</v>
       </c>
       <c r="W5" t="n">
-        <v>928.3307881281207</v>
+        <v>783.576550384666</v>
       </c>
       <c r="X5" t="n">
-        <v>928.3307881281207</v>
+        <v>410.1107921235861</v>
       </c>
       <c r="Y5" t="n">
-        <v>928.3307881281207</v>
+        <v>410.1107921235861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201.3196966998229</v>
+        <v>351.6826054794767</v>
       </c>
       <c r="C6" t="n">
-        <v>201.3196966998229</v>
+        <v>177.2295761983497</v>
       </c>
       <c r="D6" t="n">
-        <v>201.3196966998229</v>
+        <v>177.2295761983497</v>
       </c>
       <c r="E6" t="n">
-        <v>201.3196966998229</v>
+        <v>177.2295761983497</v>
       </c>
       <c r="F6" t="n">
-        <v>201.3196966998229</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="H6" t="n">
-        <v>67.3348816287873</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471033906</v>
+        <v>174.2721860626396</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516489</v>
+        <v>284.4686930039508</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830002</v>
+        <v>478.9640368353037</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537453</v>
+        <v>829.7791710122467</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259668</v>
+        <v>1097.03103358447</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891485</v>
+        <v>1319.29448074999</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090172</v>
+        <v>1478.347425948679</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261717</v>
+        <v>1534.750911261734</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757965</v>
+        <v>1530.346686757983</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757965</v>
+        <v>1385.878273152078</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.44204430965</v>
+        <v>1189.973630703762</v>
       </c>
       <c r="U6" t="n">
-        <v>1106.320960630254</v>
+        <v>961.8525470243667</v>
       </c>
       <c r="V6" t="n">
-        <v>871.1688523985113</v>
+        <v>726.700438792624</v>
       </c>
       <c r="W6" t="n">
-        <v>616.9314956703097</v>
+        <v>559.5341056850095</v>
       </c>
       <c r="X6" t="n">
-        <v>409.0799954647769</v>
+        <v>351.6826054794767</v>
       </c>
       <c r="Y6" t="n">
-        <v>201.3196966998229</v>
+        <v>351.6826054794767</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.5527154900436</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="C7" t="n">
-        <v>396.5527154900436</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="D7" t="n">
-        <v>396.5527154900436</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="E7" t="n">
-        <v>297.2366345253483</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="F7" t="n">
-        <v>150.346687027438</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="G7" t="n">
-        <v>150.346687027438</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="H7" t="n">
-        <v>150.346687027438</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709671</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523434</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223262</v>
+        <v>157.4322756223274</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830381</v>
+        <v>375.1387655830402</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388141</v>
+        <v>615.0688576388172</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974809</v>
+        <v>854.728564797485</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.07679889167</v>
+        <v>1060.076798891675</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934019</v>
+        <v>1212.267005934025</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495181</v>
+        <v>1234.200536495188</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402738</v>
+        <v>1234.200536495188</v>
       </c>
       <c r="S7" t="n">
-        <v>910.3578444371276</v>
+        <v>1030.691890529577</v>
       </c>
       <c r="T7" t="n">
-        <v>685.6925863136721</v>
+        <v>806.0266324061218</v>
       </c>
       <c r="U7" t="n">
-        <v>396.5527154900436</v>
+        <v>574.7966764680822</v>
       </c>
       <c r="V7" t="n">
-        <v>396.5527154900436</v>
+        <v>320.1121882621953</v>
       </c>
       <c r="W7" t="n">
-        <v>396.5527154900436</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="X7" t="n">
-        <v>396.5527154900436</v>
+        <v>30.69501822523469</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.5527154900436</v>
+        <v>30.69501822523469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.690749400514</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2285.945108006338</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2285.945108006338</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1954.882220662768</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1602.113565392654</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1228.647807131574</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1228.647807131574</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1606.224684207294</v>
+        <v>1485.490329133569</v>
       </c>
       <c r="C11" t="n">
-        <v>1606.224684207294</v>
+        <v>1485.490329133569</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1127.224630526819</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>741.4363779285745</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194421</v>
+        <v>741.4363779285745</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605876</v>
+        <v>326.82061336972</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.5376659159208</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706881</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656964</v>
+        <v>695.1615405656944</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087828</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.60089048404</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535293</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464064</v>
+        <v>3789.749829464058</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.88329579604</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.88329579604</v>
+        <v>3776.999350345375</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377404</v>
+        <v>3573.020743926739</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498933</v>
+        <v>3319.526802048268</v>
       </c>
       <c r="V11" t="n">
-        <v>3109.198269778421</v>
+        <v>2988.463914704697</v>
       </c>
       <c r="W11" t="n">
-        <v>2756.429614508307</v>
+        <v>2635.695259434583</v>
       </c>
       <c r="X11" t="n">
-        <v>2382.963856247227</v>
+        <v>2262.229501173503</v>
       </c>
       <c r="Y11" t="n">
-        <v>1992.824524271416</v>
+        <v>1872.090169197691</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.5376659159208</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J12" t="n">
-        <v>77.5376659159208</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504093</v>
+        <v>470.7769964046652</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929928</v>
+        <v>488.5008422034085</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749521</v>
+        <v>996.4574081599364</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861146</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193669</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.3676855341726</v>
+        <v>365.7608055583745</v>
       </c>
       <c r="C13" t="n">
-        <v>389.4315026062657</v>
+        <v>196.8246226304676</v>
       </c>
       <c r="D13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174541</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="H13" t="n">
-        <v>77.5376659159208</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="I13" t="n">
-        <v>77.5376659159208</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344815</v>
+        <v>710.5788654344803</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010721</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2056.743466925582</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.62761945888</v>
+        <v>1868.627619458878</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893321</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1647.736286893321</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.051798687434</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.79828040596</v>
+        <v>814.542935599922</v>
       </c>
       <c r="X13" t="n">
-        <v>960.8087295079424</v>
+        <v>586.5533847019046</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.0161503644123</v>
+        <v>365.7608055583745</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021782</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057242</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778174</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654817</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830886</v>
+        <v>197.0043242297728</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851782</v>
+        <v>197.0043242297728</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297728</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510507</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.77659230462</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369642</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179065</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863899996</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776639</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E19" t="n">
-        <v>295.5818533952707</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>148.6919058973604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>148.6919058973604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782936</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038323</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797724</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235162</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602301</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359454</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614366</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179065</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327621</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327621</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>613.6374994204264</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E22" t="n">
-        <v>465.7244058380333</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>465.7244058380333</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>298.5283065529133</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>156.8164753951114</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580258</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603199</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947397</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.60190374151</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704549</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806532</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630017</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111725</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622258</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219831</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>449.34398413959</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>302.4540366416796</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>135.2579373565596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6218,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,28 +6233,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,13 +6406,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854706</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6455,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,31 +6467,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925705</v>
+        <v>961.4835393015906</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>740.6909601580604</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121642</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270441</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,16 +7199,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121658</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121658</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121659</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121659</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270458</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138422</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703122</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.899304487669</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597623</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597623</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637048</v>
+        <v>34.43939438636951</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000534</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>105.5468419254504</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>67.33400740195881</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>20.64190552682838</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>30.52138587081068</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>84.31201523793172</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>38.138928276241</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.4862366927533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345295021</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>85.96822242532927</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294931</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>18.89602209489742</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>99.26785128072206</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194198</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187197</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194233</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194069</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856546</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347515</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>923665.826888156</v>
+        <v>923665.8268881553</v>
       </c>
     </row>
     <row r="6">
@@ -26314,28 +26314,28 @@
         <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321413</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371985</v>
+        <v>366294.6221371981</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450032</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
         <v>403573.2998450031</v>
@@ -26344,10 +26344,10 @@
         <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="N2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="N2" t="n">
-        <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26366,19 +26366,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657049</v>
+        <v>132804.2190657097</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929395</v>
+        <v>265413.0723929349</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545781</v>
+        <v>313577.1573545768</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704279</v>
+        <v>189308.2687704295</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417369</v>
+        <v>30877.42926417492</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049619</v>
+        <v>65018.34502049504</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273094</v>
+        <v>81897.40371273061</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202347</v>
+        <v>49839.57413202374</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>211562.795179604</v>
+        <v>211562.7951796027</v>
       </c>
       <c r="D4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="E4" t="n">
-        <v>8621.837832097744</v>
+        <v>8621.837832097743</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744262</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744297</v>
-      </c>
       <c r="H4" t="n">
-        <v>8727.256391744297</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744326</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744289</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744279</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744293</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744326</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8727.2563917443</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744366</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744315</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744326</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744304</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.6503866748</v>
+        <v>72593.65038667513</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-580263.4659057069</v>
       </c>
       <c r="C6" t="n">
-        <v>-6439.779699842329</v>
+        <v>-6439.779699845807</v>
       </c>
       <c r="D6" t="n">
-        <v>-83352.09687762568</v>
+        <v>-83352.09687762108</v>
       </c>
       <c r="E6" t="n">
-        <v>-41041.85811686317</v>
+        <v>-41262.98943083679</v>
       </c>
       <c r="F6" t="n">
-        <v>104415.244858924</v>
+        <v>104380.5069334866</v>
       </c>
       <c r="G6" t="n">
-        <v>293723.5136293515</v>
+        <v>293688.775703916</v>
       </c>
       <c r="H6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.775703916</v>
       </c>
       <c r="I6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.7757039161</v>
       </c>
       <c r="J6" t="n">
-        <v>224724.3592102375</v>
+        <v>224689.6212848018</v>
       </c>
       <c r="K6" t="n">
-        <v>262846.084365178</v>
+        <v>262811.346439741</v>
       </c>
       <c r="L6" t="n">
-        <v>228705.1686088555</v>
+        <v>228670.4306834209</v>
       </c>
       <c r="M6" t="n">
-        <v>211826.1099166207</v>
+        <v>211791.3719911854</v>
       </c>
       <c r="N6" t="n">
-        <v>243883.9394973281</v>
+        <v>243849.2015718922</v>
       </c>
       <c r="O6" t="n">
-        <v>293723.5136293517</v>
+        <v>293688.7757039159</v>
       </c>
       <c r="P6" t="n">
-        <v>293723.5136293515</v>
+        <v>293688.7757039159</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695732</v>
+        <v>717.331951169577</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154292</v>
+        <v>383.6877278154336</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.22082394901</v>
+        <v>969.2208239490084</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000949</v>
+        <v>103.2769374000986</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479659</v>
+        <v>216.7329409479621</v>
       </c>
       <c r="E3" t="n">
-        <v>268.176345097412</v>
+        <v>268.1763450974108</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267225</v>
+        <v>165.7342631267238</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.973847813923</v>
+        <v>119.9738478139274</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846096</v>
+        <v>256.8971042846053</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506382</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139228</v>
+        <v>119.9738478139276</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846098</v>
+        <v>256.8971042846053</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813923</v>
+        <v>119.9738478139274</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846096</v>
+        <v>256.8971042846053</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506382</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>191.7914676267079</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>102.6175812290062</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>53.26844944332957</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>117.4339151995599</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.44504749999059</v>
       </c>
       <c r="S4" t="n">
-        <v>62.94100992119451</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>25.60379063237525</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>188.5839908400886</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863715</v>
+        <v>99.30025118863658</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660377</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>100.4894978629472</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333222</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951715</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>86.20031338438127</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>48.11104249152089</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015376</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.90523611264328</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315182</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>57.330815736733</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.48012218914899</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.193308483574981</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>195.5290386501003</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.153637185780099e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,16 +30040,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30280,10 +30280,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30514,10 +30514,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365116</v>
+        <v>2.883746537365131</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579051</v>
+        <v>29.53316922579066</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817688</v>
+        <v>111.1756383817693</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756928</v>
+        <v>244.754382675694</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023582</v>
+        <v>366.8233736023602</v>
       </c>
       <c r="L5" t="n">
-        <v>455.076831695246</v>
+        <v>455.0768316952484</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791129</v>
+        <v>506.3606591791155</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284015</v>
+        <v>514.5541040284043</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974772</v>
+        <v>485.8788493974797</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562758</v>
+        <v>414.6863567562779</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868874</v>
+        <v>311.4121838868891</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277616</v>
+        <v>181.1461434277626</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020765</v>
+        <v>65.713374220208</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6236004673158</v>
+        <v>12.62360046731587</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892093</v>
+        <v>0.2306997229892105</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270403</v>
+        <v>1.542940423270411</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316416</v>
+        <v>14.90155619316423</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189765</v>
+        <v>53.12316808189793</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862621</v>
+        <v>145.7740335862628</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453791</v>
+        <v>249.1510419453804</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438654</v>
+        <v>335.0143230438671</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874174</v>
+        <v>390.9459133874194</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189106</v>
+        <v>401.2930884189127</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348664</v>
+        <v>367.1047769348683</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190649</v>
+        <v>294.6339480190665</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739553</v>
+        <v>196.9549915739563</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392909</v>
+        <v>95.79765189392958</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399189</v>
+        <v>28.65944163399204</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989034</v>
+        <v>6.219132670989066</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730529</v>
+        <v>0.1015092383730534</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141853</v>
+        <v>1.29354942014186</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907939</v>
+        <v>11.50083029907946</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572047</v>
+        <v>38.90055892572067</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402903</v>
+        <v>91.45394400402949</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401171</v>
+        <v>150.2869235401179</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545443</v>
+        <v>192.3155201545453</v>
       </c>
       <c r="M7" t="n">
-        <v>202.769751377327</v>
+        <v>202.7697513773281</v>
       </c>
       <c r="N7" t="n">
-        <v>197.948339902253</v>
+        <v>197.948339902254</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669595</v>
+        <v>182.8373307669604</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960655</v>
+        <v>156.4489225960664</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266056</v>
+        <v>108.3171246266061</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565095</v>
+        <v>58.16268574565125</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101756</v>
+        <v>22.54303853101768</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060644</v>
+        <v>5.526983886060673</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864663</v>
+        <v>0.07055724109864699</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>144.9058654583187</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>156.4572543240593</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>672.5632370340502</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924477</v>
+        <v>615.2639659924471</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383448</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270672</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,25 +32552,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,7 +33755,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,16 +33971,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>264.8708611242915</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,16 +34208,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900648</v>
+        <v>63.70847814900776</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573777</v>
+        <v>146.7335225573796</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252587</v>
+        <v>219.3104167252611</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518402</v>
+        <v>276.0144259518428</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318106</v>
+        <v>285.1410404318133</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757904</v>
+        <v>255.7806379757929</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010062</v>
+        <v>183.4533610010084</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243793</v>
+        <v>89.10649401243958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960073</v>
+        <v>145.027442260005</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710201</v>
+        <v>111.3096029710214</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639912</v>
+        <v>196.4599432639929</v>
       </c>
       <c r="M6" t="n">
-        <v>248.811879465399</v>
+        <v>354.3587213908515</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355773</v>
+        <v>269.9513763355794</v>
       </c>
       <c r="O6" t="n">
-        <v>224.508532490422</v>
+        <v>224.5085324904239</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047347</v>
+        <v>160.6595406047362</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237829</v>
+        <v>56.97321748793482</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142342</v>
+        <v>128.017431714235</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148604</v>
+        <v>219.9055454148614</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391676</v>
+        <v>242.3536283391687</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814816</v>
+        <v>242.0805122814826</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809991</v>
+        <v>207.4224586810001</v>
       </c>
       <c r="P7" t="n">
-        <v>153.727481860959</v>
+        <v>153.7274818609598</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491118</v>
+        <v>22.15508137491173</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,7 +35267,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>7.064426483959732</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>17.90287454418515</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>541.2215249507169</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480032</v>
+        <v>472.6677215480026</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240145</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410457</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629513</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36200,25 +36200,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998964</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,16 +37856,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
